--- a/Безопасность/Салов_РК5.xlsx
+++ b/Безопасность/Салов_РК5.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="32767"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -543,32 +543,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="6" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="6" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -585,7 +585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -597,7 +597,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -615,7 +615,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -638,7 +638,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -656,12 +656,15 @@
       <c r="G11" s="4">
         <v>275</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <f>MOD(275*11,1008)</f>
+        <v>1</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -682,7 +685,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -690,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -698,7 +701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -709,7 +712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -733,7 +736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -760,7 +763,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
@@ -780,7 +783,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -788,7 +791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -813,7 +816,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>25</v>
       </c>
